--- a/data/breweriesByState/OH.xlsx
+++ b/data/breweriesByState/OH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NikhilStuff/Desktop/beer_data/data/breweriesByState/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF30BF53-CCE4-F142-A706-A14198654007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2C1935-A57F-6642-943D-1F8F5972FA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3460" windowWidth="25640" windowHeight="13180" xr2:uid="{15EDD79D-B59B-634D-8ACC-D30A6E9336FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{15EDD79D-B59B-634D-8ACC-D30A6E9336FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2571,7 +2571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2595,14 +2595,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2621,17 +2613,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2946,11 +2936,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6CA084-C6D1-294F-A2DB-3E49FF327244}">
   <dimension ref="A1:A323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282:XFD282"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A233" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -4513,242 +4506,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="cite_note-3" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-3" xr:uid="{2CAA4A78-EA95-0044-81F1-FAA6E6C469E9}"/>
-    <hyperlink ref="A8" r:id="rId2" location="cite_note-8" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-8" xr:uid="{81F671FC-71ED-FB45-8A41-1CE40701B704}"/>
-    <hyperlink ref="A11" r:id="rId3" location="cite_note-11" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-11" xr:uid="{0A01D23B-E6A8-6A4B-B6EB-DB7F4070E48D}"/>
-    <hyperlink ref="A13" r:id="rId4" location="cite_note-13" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-13" xr:uid="{F9B72BDA-F214-D34C-A7B2-3C74EF52557B}"/>
-    <hyperlink ref="A14" r:id="rId5" location="cite_note-14" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-14" xr:uid="{55FA0B51-5E21-5D4F-90F4-D04DD955023F}"/>
-    <hyperlink ref="A16" r:id="rId6" location="cite_note-16" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-16" xr:uid="{9CFABCD8-F9B2-2649-8B3A-278ED754DEFB}"/>
-    <hyperlink ref="A17" r:id="rId7" location="cite_note-17" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-17" xr:uid="{8A287F8C-2C87-084B-8F45-DDBC50A691F5}"/>
-    <hyperlink ref="A19" r:id="rId8" location="cite_note-19" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-19" xr:uid="{D8886999-F075-6848-9161-86CB443C3473}"/>
-    <hyperlink ref="A20" r:id="rId9" location="cite_note-20" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-20" xr:uid="{92864B8E-0FA8-5F42-8DE2-25A640349440}"/>
-    <hyperlink ref="A22" r:id="rId10" location="cite_note-21" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-21" xr:uid="{632DB712-C23E-2B4B-80E0-4FC42984F80A}"/>
-    <hyperlink ref="A23" r:id="rId11" location="cite_note-22" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-22" xr:uid="{D32C47F4-D4C8-5843-8560-9CE6309C44BA}"/>
-    <hyperlink ref="A26" r:id="rId12" location="cite_note-26" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-26" xr:uid="{0C2286F9-6499-CB46-A59F-E448614A60C5}"/>
-    <hyperlink ref="A27" r:id="rId13" location="cite_note-27" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-27" xr:uid="{D39BA837-E8AA-5749-93F2-B9039EB116E0}"/>
-    <hyperlink ref="A28" r:id="rId14" location="cite_note-28" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-28" xr:uid="{FDE67F91-D008-4B47-9D0A-704731A44F76}"/>
-    <hyperlink ref="A29" r:id="rId15" location="cite_note-29" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-29" xr:uid="{57C3F865-D4BD-AB49-B66D-7C4EA67C9B50}"/>
-    <hyperlink ref="A30" r:id="rId16" location="cite_note-30" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-30" xr:uid="{1AC09B22-6BA1-134F-8A0D-5F55DFF7DFBE}"/>
-    <hyperlink ref="A31" r:id="rId17" location="cite_note-31" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-31" xr:uid="{3C453113-7532-284A-B9A2-E0CD963F2B06}"/>
-    <hyperlink ref="A33" r:id="rId18" location="cite_note-33" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-33" xr:uid="{142C5957-DB67-E74B-836B-CB9C9FB5326D}"/>
-    <hyperlink ref="A34" r:id="rId19" location="cite_note-34" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-34" xr:uid="{471E33C3-A6EA-2F48-9E52-DB0C8246EAB7}"/>
-    <hyperlink ref="A35" r:id="rId20" location="cite_note-35" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-35" xr:uid="{2B0D924E-28DE-6C47-86E9-980A0074B2CB}"/>
-    <hyperlink ref="A38" r:id="rId21" location="cite_note-38" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-38" xr:uid="{BEA09D69-22DB-D247-BABD-6567D8B59946}"/>
-    <hyperlink ref="A39" r:id="rId22" location="cite_note-39" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-39" xr:uid="{FE783CB8-EAB2-E446-B8D4-5F62D541EF37}"/>
-    <hyperlink ref="A41" r:id="rId23" location="cite_note-41" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-41" xr:uid="{B833DDBB-F546-6547-B4F9-22CC7AF01669}"/>
-    <hyperlink ref="A42" r:id="rId24" location="cite_note-42" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-42" xr:uid="{0D8F64BD-B708-414B-B1C0-D68D6F31F8C4}"/>
-    <hyperlink ref="A43" r:id="rId25" tooltip="Great Lakes Brewing Company" display="https://en.wikipedia.org/wiki/Great_Lakes_Brewing_Company" xr:uid="{246FC1E1-5F8E-4B4F-BB0E-FD396F8DA333}"/>
-    <hyperlink ref="A44" r:id="rId26" location="cite_note-43" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-43" xr:uid="{79E1C254-0B85-D54C-811F-AA7BB1B36286}"/>
-    <hyperlink ref="A45" r:id="rId27" location="cite_note-44" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-44" xr:uid="{4C470243-149C-F742-A0E4-8022AD852C2D}"/>
-    <hyperlink ref="A46" r:id="rId28" location="cite_note-45" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-45" xr:uid="{B52BFE28-9D9B-8D41-A95A-9086D7219DEB}"/>
-    <hyperlink ref="A47" r:id="rId29" location="cite_note-46" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-46" xr:uid="{EC9FDEDE-2034-6546-934F-EA51954D341E}"/>
-    <hyperlink ref="A48" r:id="rId30" location="cite_note-47" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-47" xr:uid="{2ABA8A4A-E084-DE47-8DAA-53E2D3503770}"/>
-    <hyperlink ref="A49" r:id="rId31" location="cite_note-48" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-48" xr:uid="{2A7BFB86-1521-AE43-B76E-AE100A44DF9F}"/>
-    <hyperlink ref="A51" r:id="rId32" location="cite_note-50" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-50" xr:uid="{35FA98BC-3CC8-0345-BD88-E5AF9A3FDB60}"/>
-    <hyperlink ref="A53" r:id="rId33" location="cite_note-52" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-52" xr:uid="{160FF50D-5B9E-7B41-B1FB-DBF4859DEA1B}"/>
-    <hyperlink ref="A54" r:id="rId34" location="cite_note-53" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-53" xr:uid="{A53CA191-7CCF-AA4C-B365-60B592D6640A}"/>
-    <hyperlink ref="A55" r:id="rId35" location="cite_note-54" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-54" xr:uid="{D47485B6-7F6E-F24C-8B7C-2F15AD955BC6}"/>
-    <hyperlink ref="A56" r:id="rId36" location="cite_note-55" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-55" xr:uid="{3FD3558E-2159-D148-BEA7-12A1BF967C57}"/>
-    <hyperlink ref="A58" r:id="rId37" location="cite_note-57" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-57" xr:uid="{3AE185A7-4086-6948-8124-7A81AFE4A582}"/>
-    <hyperlink ref="A59" r:id="rId38" location="cite_note-58" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-58" xr:uid="{33E9BBB4-AD2F-7C42-9C6C-111025A8798B}"/>
-    <hyperlink ref="A61" r:id="rId39" location="cite_note-60" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-60" xr:uid="{013CB6F5-DA22-5A4D-BD6F-766858D48904}"/>
-    <hyperlink ref="A62" r:id="rId40" location="cite_note-61" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-61" xr:uid="{52A59F50-DAF1-F941-B850-DD569A9C03E8}"/>
-    <hyperlink ref="A64" r:id="rId41" location="cite_note-62" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-62" xr:uid="{E89BBBDC-EED8-2C43-A77C-36EF09D51388}"/>
-    <hyperlink ref="A67" r:id="rId42" location="cite_note-auto1-65" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-auto1-65" xr:uid="{EB378740-A763-B446-9C95-E11B5FC9E29C}"/>
-    <hyperlink ref="A69" r:id="rId43" location="cite_note-67" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-67" xr:uid="{D08DD382-23F5-4148-9A20-0F5F6BAE9819}"/>
-    <hyperlink ref="A70" r:id="rId44" location="cite_note-68" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-68" xr:uid="{2AFB68D7-DE68-2D4D-A223-715A9F8D2290}"/>
-    <hyperlink ref="A73" r:id="rId45" location="cite_note-71" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-71" xr:uid="{E62CEC5F-9261-0D4D-AC98-14110A0903E8}"/>
-    <hyperlink ref="A74" r:id="rId46" location="cite_note-72" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-72" xr:uid="{01C9C97C-B1BB-3345-ABBB-7B832926B13B}"/>
-    <hyperlink ref="A75" r:id="rId47" location="cite_note-73" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-73" xr:uid="{29C50280-00D7-F049-92AB-26A4A3F981C6}"/>
-    <hyperlink ref="A76" r:id="rId48" location="cite_note-74" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-74" xr:uid="{E76B1224-7C3E-9F48-A589-0CE561617F49}"/>
-    <hyperlink ref="A78" r:id="rId49" location="cite_note-76" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-76" xr:uid="{1808C91E-9665-FF47-805B-E6A5DE7D5799}"/>
-    <hyperlink ref="A79" r:id="rId50" location="cite_note-77" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-77" xr:uid="{A64754B8-A881-624B-B461-092AF00C2B13}"/>
-    <hyperlink ref="A80" r:id="rId51" location="cite_note-78" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-78" xr:uid="{CD342942-0015-6545-978D-4FFF92504B70}"/>
-    <hyperlink ref="A81" r:id="rId52" location="cite_note-79" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-79" xr:uid="{70791773-41DE-4741-A43F-9AC90435A736}"/>
-    <hyperlink ref="A82" r:id="rId53" location="cite_note-auto-80" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-auto-80" xr:uid="{E4462490-AAD9-544A-98F9-8CCB18283528}"/>
-    <hyperlink ref="A83" r:id="rId54" location="cite_note-81" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-81" xr:uid="{A5934522-0B63-E04E-A7F9-F5E6CA53AB2A}"/>
-    <hyperlink ref="A84" r:id="rId55" location="cite_note-82" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-82" xr:uid="{12B6CD59-3155-9D4B-96A8-E8797B1543FB}"/>
-    <hyperlink ref="A85" r:id="rId56" location="cite_note-83" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-83" xr:uid="{68836EA0-7640-9B4C-AEE0-EE2C19B6C364}"/>
-    <hyperlink ref="A86" r:id="rId57" location="cite_note-84" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-84" xr:uid="{2FF78400-4BDE-714F-BDB2-B707368D134E}"/>
-    <hyperlink ref="A87" r:id="rId58" location="cite_note-85" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-85" xr:uid="{36E2920A-B647-F944-B2D8-8AA40CDF341D}"/>
-    <hyperlink ref="A88" r:id="rId59" location="cite_note-86" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-86" xr:uid="{599257CA-F1B8-284E-ACE4-7C0C9B27FB64}"/>
-    <hyperlink ref="A90" r:id="rId60" location="cite_note-88" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-88" xr:uid="{A9857445-6BFA-AE4A-8AD7-3155A7FA3205}"/>
-    <hyperlink ref="A94" r:id="rId61" location="cite_note-92" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-92" xr:uid="{8B8B9B74-5DA2-624D-9587-DD33E616AE64}"/>
-    <hyperlink ref="A96" r:id="rId62" location="cite_note-94" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-94" xr:uid="{B213AA98-23C3-654B-8A73-DF292199034F}"/>
-    <hyperlink ref="A97" r:id="rId63" location="cite_note-95" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-95" xr:uid="{C5577B82-9350-A147-8BFC-B5F9CE0CBBB6}"/>
-    <hyperlink ref="A99" r:id="rId64" location="cite_note-97" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-97" xr:uid="{8FC9C029-3FC7-2E41-9C0D-7EBA56DEBB84}"/>
-    <hyperlink ref="A101" r:id="rId65" location="cite_note-99" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-99" xr:uid="{E5E891C6-364D-9040-87F7-FFB08AED89F3}"/>
-    <hyperlink ref="A102" r:id="rId66" location="cite_note-100" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-100" xr:uid="{E734FA3C-9443-8F4E-8B92-30FB0AE756DD}"/>
-    <hyperlink ref="A103" r:id="rId67" location="cite_note-101" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-101" xr:uid="{46182AC5-07FA-6B4D-B85C-280904640D1C}"/>
-    <hyperlink ref="A104" r:id="rId68" location="cite_note-102" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-102" xr:uid="{4AED05F9-F33B-9B44-A288-5E64B3B97966}"/>
-    <hyperlink ref="A105" r:id="rId69" location="cite_note-103" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-103" xr:uid="{9A2A9A9E-0E47-3046-9637-28EE654C4E65}"/>
-    <hyperlink ref="A106" r:id="rId70" location="cite_note-104" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-104" xr:uid="{FFD8B57D-A4C5-8E48-BD36-4F36BAF3AC30}"/>
-    <hyperlink ref="A107" r:id="rId71" location="cite_note-105" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-105" xr:uid="{B30F5ED8-ED7D-DF47-912F-C6A4D9BC0E22}"/>
-    <hyperlink ref="A108" r:id="rId72" location="cite_note-106" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-106" xr:uid="{70E03959-CDC2-644C-A302-6447E17CCEB7}"/>
-    <hyperlink ref="A109" r:id="rId73" location="cite_note-107" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-107" xr:uid="{C723FA55-8192-AA45-A7DC-7E44907E9574}"/>
-    <hyperlink ref="A111" r:id="rId74" location="cite_note-109" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-109" xr:uid="{5DE6AB6E-FEC4-E34E-BFBA-130EC75AE6A0}"/>
-    <hyperlink ref="A113" r:id="rId75" location="cite_note-111" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-111" xr:uid="{6C56E5F7-C212-0741-A934-CC7B2E5AC5D7}"/>
-    <hyperlink ref="A114" r:id="rId76" location="cite_note-112" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-112" xr:uid="{28AD91E9-B7B6-4C4B-BA27-902938BA5C6E}"/>
-    <hyperlink ref="A115" r:id="rId77" location="cite_note-113" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-113" xr:uid="{B0585F55-7D25-3C4D-8F21-D6A14DE9EA1A}"/>
-    <hyperlink ref="A116" r:id="rId78" location="cite_note-114" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-114" xr:uid="{69B5302A-EC0A-3844-8FDE-68108EED9A3B}"/>
-    <hyperlink ref="A120" r:id="rId79" location="cite_note-115" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-115" xr:uid="{EEFD6966-1D2B-CA40-93F6-25BDC92D0269}"/>
-    <hyperlink ref="A121" r:id="rId80" location="cite_note-116" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-116" xr:uid="{0AC295E8-58C7-2D43-8DFB-7D17DFF51805}"/>
-    <hyperlink ref="A122" r:id="rId81" location="cite_note-117" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-117" xr:uid="{E9D00F78-F7E3-9141-B636-D1422E1F12AE}"/>
-    <hyperlink ref="A124" r:id="rId82" location="cite_note-119" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-119" xr:uid="{2E8D1701-477B-2C42-81FD-8FC49137DD73}"/>
-    <hyperlink ref="A125" r:id="rId83" location="cite_note-120" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-120" xr:uid="{6BC2DAE1-B0EE-B649-9DBC-3764ABE4CCB7}"/>
-    <hyperlink ref="A126" r:id="rId84" location="cite_note-121" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-121" xr:uid="{8A16968B-5927-0E48-831D-1375DF03F065}"/>
-    <hyperlink ref="A127" r:id="rId85" location="cite_note-122" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-122" xr:uid="{E604C525-E4F2-684B-9632-A0C5F2F2CA4F}"/>
-    <hyperlink ref="A128" r:id="rId86" location="cite_note-123" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-123" xr:uid="{D4C2425D-4385-B74A-B55A-3778E8210FC5}"/>
-    <hyperlink ref="A129" r:id="rId87" location="cite_note-124" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-124" xr:uid="{256880A7-D297-7647-A39E-7680297C1FEF}"/>
-    <hyperlink ref="A131" r:id="rId88" location="cite_note-126" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-126" xr:uid="{9C523F29-9B0D-3244-886A-5B4B10633FFE}"/>
-    <hyperlink ref="A133" r:id="rId89" tooltip="Christian Moerlein Brewing Co." display="https://en.wikipedia.org/wiki/Christian_Moerlein_Brewing_Co." xr:uid="{41960246-D9C7-3E44-A5DC-38F909CA0F81}"/>
-    <hyperlink ref="A134" r:id="rId90" location="cite_note-128" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-128" xr:uid="{CCF2783C-6C33-4442-8C25-0ED70F3B869E}"/>
-    <hyperlink ref="A135" r:id="rId91" location="cite_note-129" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-129" xr:uid="{ECC5785E-E151-1147-892F-C168F2FC6609}"/>
-    <hyperlink ref="A136" r:id="rId92" location="cite_note-130" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-130" xr:uid="{653FC167-3F4D-E04C-8407-83584B3E8E45}"/>
-    <hyperlink ref="A137" r:id="rId93" location="cite_note-131" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-131" xr:uid="{502775E8-75F0-DD47-9884-FF6B8731E7D5}"/>
-    <hyperlink ref="A138" r:id="rId94" location="cite_note-132" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-132" xr:uid="{7DFA1162-EBE1-9445-AB17-518EFCA62208}"/>
-    <hyperlink ref="A139" r:id="rId95" location="cite_note-133" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-133" xr:uid="{620AB3CF-1196-9E40-9A96-34132F9BF5EE}"/>
-    <hyperlink ref="A141" r:id="rId96" location="cite_note-135" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-135" xr:uid="{74EF2E45-6984-A843-8863-45C886BB193D}"/>
-    <hyperlink ref="A142" r:id="rId97" location="cite_note-136" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-136" xr:uid="{56FF0F00-4261-7A4F-85F2-5EB0C077832B}"/>
-    <hyperlink ref="A143" r:id="rId98" location="cite_note-137" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-137" xr:uid="{2D6103CF-C751-1748-A52A-AEF358F9C0E7}"/>
-    <hyperlink ref="A144" r:id="rId99" location="cite_note-138" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-138" xr:uid="{D8668C20-D010-4244-926B-EB7198E2375C}"/>
-    <hyperlink ref="A145" r:id="rId100" location="cite_note-139" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-139" xr:uid="{B860FAD2-9CF8-3F4B-9B20-35155D638B82}"/>
-    <hyperlink ref="A146" r:id="rId101" location="cite_note-140" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-140" xr:uid="{32760AD3-6750-5848-8BCF-1C3F4C70225C}"/>
-    <hyperlink ref="A149" r:id="rId102" location="cite_note-auto-80" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-auto-80" xr:uid="{E81CB1E4-B52C-2546-A5A1-A0AA214D3DA1}"/>
-    <hyperlink ref="A150" r:id="rId103" location="cite_note-143" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-143" xr:uid="{FE0A5281-04B5-3A4B-B181-EFE53A1EBBA0}"/>
-    <hyperlink ref="A151" r:id="rId104" location="cite_note-144" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-144" xr:uid="{D101AC38-8612-BD48-983F-63B2419465A0}"/>
-    <hyperlink ref="A152" r:id="rId105" tooltip="Hudepohl Brewing Company" display="https://en.wikipedia.org/wiki/Hudepohl_Brewing_Company" xr:uid="{E46CB9AC-B739-1243-AEE7-3A22C87BCA3C}"/>
-    <hyperlink ref="A153" r:id="rId106" location="cite_note-145" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-145" xr:uid="{619C6417-5BD5-AB41-9CFF-1FF13217872D}"/>
-    <hyperlink ref="A154" r:id="rId107" location="cite_note-146" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-146" xr:uid="{95661DF9-FB0C-3542-813F-2EF59A8C64DB}"/>
-    <hyperlink ref="A155" r:id="rId108" location="cite_note-147" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-147" xr:uid="{876D7D1C-8888-664F-8858-CFFA9D6CCD1F}"/>
-    <hyperlink ref="A156" r:id="rId109" location="cite_note-148" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-148" xr:uid="{A27B716C-5CEF-F446-B350-DB44DD59EE10}"/>
-    <hyperlink ref="A158" r:id="rId110" location="cite_note-150" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-150" xr:uid="{1B805092-E818-8A48-A292-E6D818339403}"/>
-    <hyperlink ref="A160" r:id="rId111" location="cite_note-152" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-152" xr:uid="{DA1BB510-A610-F444-A008-CA944F633337}"/>
-    <hyperlink ref="A161" r:id="rId112" location="cite_note-153" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-153" xr:uid="{1F14B4A6-359D-2E43-BA01-BEEAE9FCA83F}"/>
-    <hyperlink ref="A162" r:id="rId113" location="cite_note-154" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-154" xr:uid="{73387FF3-6CF8-0242-B151-8BCF14C4B73D}"/>
-    <hyperlink ref="A163" r:id="rId114" location="cite_note-155" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-155" xr:uid="{7FE4BDE6-B1A8-3C41-AFD0-A699829BE6AC}"/>
-    <hyperlink ref="A164" r:id="rId115" location="cite_note-156" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-156" xr:uid="{720A31DB-F468-E941-BE4D-0E8D6BFE929A}"/>
-    <hyperlink ref="A165" r:id="rId116" location="cite_note-157" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-157" xr:uid="{60CEFBC8-A928-C442-80FD-4516D027130E}"/>
-    <hyperlink ref="A166" r:id="rId117" location="cite_note-158" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-158" xr:uid="{FA04451E-9108-E64F-9324-8764B9BF8B86}"/>
-    <hyperlink ref="A167" r:id="rId118" location="cite_note-159" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-159" xr:uid="{C2865C18-E0BD-6044-B402-EA228F1F65CB}"/>
-    <hyperlink ref="A168" r:id="rId119" location="cite_note-160" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-160" xr:uid="{961B7825-D35F-0945-91EF-128FC3E31D48}"/>
-    <hyperlink ref="A169" r:id="rId120" location="cite_note-161" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-161" xr:uid="{22A01AEE-CAA2-2543-97F0-7F607867D872}"/>
-    <hyperlink ref="A170" r:id="rId121" location="cite_note-162" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-162" xr:uid="{041C7126-9E6C-4F40-8C19-E5A428472C47}"/>
-    <hyperlink ref="A171" r:id="rId122" location="cite_note-163" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-163" xr:uid="{54267A18-C077-564C-A408-5E3F9F563EEE}"/>
-    <hyperlink ref="A173" r:id="rId123" location="cite_note-165" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-165" xr:uid="{79AE8D5B-1500-F44D-9684-0FBF8586988F}"/>
-    <hyperlink ref="A176" r:id="rId124" location="cite_note-168" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-168" xr:uid="{62B5262A-7B56-E24A-A609-427DBB3D58AB}"/>
-    <hyperlink ref="A177" r:id="rId125" location="cite_note-169" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-169" xr:uid="{42CB1BDD-926A-ED44-8E58-EA23B6525997}"/>
-    <hyperlink ref="A178" r:id="rId126" location="cite_note-170" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-170" xr:uid="{1943DC6D-1FCB-5D41-9BA9-CBC3036A28EB}"/>
-    <hyperlink ref="A179" r:id="rId127" location="cite_note-171" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-171" xr:uid="{26B11EB6-AD9F-EE45-AFD4-84C1BA392CD5}"/>
-    <hyperlink ref="A180" r:id="rId128" location="cite_note-172" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-172" xr:uid="{32B4CDE3-F254-224C-92A7-1E741B621089}"/>
-    <hyperlink ref="A181" r:id="rId129" location="cite_note-173" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-173" xr:uid="{D9510476-0FC9-294F-9C9E-2C4CFE95B195}"/>
-    <hyperlink ref="A182" r:id="rId130" location="cite_note-174" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-174" xr:uid="{080E70F8-8342-D74C-AB1F-FCB5CC3EFA90}"/>
-    <hyperlink ref="A183" r:id="rId131" location="cite_note-175" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-175" xr:uid="{CC78584D-30F2-AB43-A33D-7A5B9005E001}"/>
-    <hyperlink ref="A184" r:id="rId132" location="cite_note-176" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-176" xr:uid="{76CE0710-2304-D446-917E-5C16B5616F87}"/>
-    <hyperlink ref="A185" r:id="rId133" location="cite_note-177" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-177" xr:uid="{FD36FBEE-E3E3-E54D-9459-AE5169701FF0}"/>
-    <hyperlink ref="A186" r:id="rId134" location="cite_note-178" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-178" xr:uid="{90D70631-8059-1E42-9806-62A23B01457A}"/>
-    <hyperlink ref="A187" r:id="rId135" location="cite_note-179" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-179" xr:uid="{D3BDD647-AD09-E140-B33A-29B214D147B2}"/>
-    <hyperlink ref="A188" r:id="rId136" location="cite_note-180" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-180" xr:uid="{81D34C05-EFDE-774B-A385-B9E22E0612ED}"/>
-    <hyperlink ref="A189" r:id="rId137" location="cite_note-181" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-181" xr:uid="{D9A6B0D7-D849-DE44-83FF-E225DCF1F39E}"/>
-    <hyperlink ref="A190" r:id="rId138" location="cite_note-182" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-182" xr:uid="{EDEE32BF-2DDF-894E-B823-BF61E7062B83}"/>
-    <hyperlink ref="A191" r:id="rId139" location="cite_note-183" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-183" xr:uid="{CD32BAA1-88A7-5044-A42B-38044C8A8B9C}"/>
-    <hyperlink ref="A192" r:id="rId140" location="cite_note-184" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-184" xr:uid="{6907507C-7A6A-8042-A211-DAD013566542}"/>
-    <hyperlink ref="A193" r:id="rId141" location="cite_note-185" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-185" xr:uid="{94125033-75C8-AD41-A82B-2E020A24E1B5}"/>
-    <hyperlink ref="A194" r:id="rId142" location="cite_note-186" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-186" xr:uid="{36F09086-A32B-A44D-BC09-1B3236E51D3B}"/>
-    <hyperlink ref="A199" r:id="rId143" location="cite_note-188" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-188" xr:uid="{5FA149AA-E726-1048-833C-DD2498715450}"/>
-    <hyperlink ref="A200" r:id="rId144" location="cite_note-189" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-189" xr:uid="{E2E5FFF2-1CFE-8743-A8AC-44F23E58A537}"/>
-    <hyperlink ref="A201" r:id="rId145" location="cite_note-190" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-190" xr:uid="{34122A1B-CE52-AB41-869F-659EED2D76DB}"/>
-    <hyperlink ref="A202" r:id="rId146" location="cite_note-191" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-191" xr:uid="{398787EA-66AF-E240-B42D-B54AC69F94C2}"/>
-    <hyperlink ref="A203" r:id="rId147" location="cite_note-192" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-192" xr:uid="{74145C26-E8BB-944A-91DF-81707F40FC97}"/>
-    <hyperlink ref="A204" r:id="rId148" location="cite_note-193" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-193" xr:uid="{1AEABC4D-700C-B745-B50A-B4ED829E4D08}"/>
-    <hyperlink ref="A207" r:id="rId149" location="cite_note-196" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-196" xr:uid="{ACC3BAA8-5699-8249-8418-EDFB14DB2097}"/>
-    <hyperlink ref="A208" r:id="rId150" location="cite_note-197" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-197" xr:uid="{0A51D429-BA74-BE48-B234-0240A45BCD8A}"/>
-    <hyperlink ref="A209" r:id="rId151" location="cite_note-198" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-198" xr:uid="{5F0ADD93-E8F8-0A4C-AAEE-CEEB5E11EC3C}"/>
-    <hyperlink ref="A210" r:id="rId152" location="cite_note-199" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-199" xr:uid="{BDBA8C22-D4D6-8E4F-B8D0-1AA71D3E7EBE}"/>
-    <hyperlink ref="A211" r:id="rId153" location="cite_note-200" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-200" xr:uid="{174383E0-15E8-0446-A062-99CDF671BA0A}"/>
-    <hyperlink ref="A212" r:id="rId154" location="cite_note-201" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-201" xr:uid="{E9185FB1-D6DF-134E-8D7F-4FAEEA756251}"/>
-    <hyperlink ref="A213" r:id="rId155" location="cite_note-202" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-202" xr:uid="{D0C17CAF-F41D-8B4A-8B4A-92B3DEAC7877}"/>
-    <hyperlink ref="A214" r:id="rId156" location="cite_note-203" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-203" xr:uid="{2D82922A-C45E-574E-9F7B-FE82A4860BEA}"/>
-    <hyperlink ref="A215" r:id="rId157" location="cite_note-204" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-204" xr:uid="{789B74F1-A059-9646-8D78-C639F6BB0293}"/>
-    <hyperlink ref="A216" r:id="rId158" location="cite_note-205" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-205" xr:uid="{62D62B6A-E733-F445-B1BF-E7FAE41C8A56}"/>
-    <hyperlink ref="A217" r:id="rId159" location="cite_note-206" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-206" xr:uid="{F360E826-C313-F84E-BC5E-522D79183098}"/>
-    <hyperlink ref="A218" r:id="rId160" location="cite_note-auto2-207" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-auto2-207" xr:uid="{1AAD1201-C2CF-9E40-8EA2-3A20F53D3204}"/>
-    <hyperlink ref="A219" r:id="rId161" location="cite_note-208" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-208" xr:uid="{3CB5F314-615E-2B49-B4D4-C99CF21CFFF0}"/>
-    <hyperlink ref="A220" r:id="rId162" location="cite_note-209" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-209" xr:uid="{55B42B18-2FB2-8A48-872F-53C390D387DD}"/>
-    <hyperlink ref="A221" r:id="rId163" location="cite_note-auto2-207" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-auto2-207" xr:uid="{2E11E120-8B51-2E4F-BF87-406FBD364EAB}"/>
-    <hyperlink ref="A222" r:id="rId164" location="cite_note-210" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-210" xr:uid="{F251C09C-85F1-0444-A474-7560BC29CC35}"/>
-    <hyperlink ref="A223" r:id="rId165" location="cite_note-211" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-211" xr:uid="{9A176150-7D98-D446-84CB-7025542B683A}"/>
-    <hyperlink ref="A225" r:id="rId166" location="cite_note-213" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-213" xr:uid="{BB97D1F8-F56D-9C49-9FD3-CB90895274BD}"/>
-    <hyperlink ref="A226" r:id="rId167" location="cite_note-214" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-214" xr:uid="{4F67DD57-C5D6-214C-8DC9-E2089F6904EA}"/>
-    <hyperlink ref="A228" r:id="rId168" location="cite_note-216" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-216" xr:uid="{7A26860D-0B98-0940-85DB-BAEE4E6C0EE6}"/>
-    <hyperlink ref="A231" r:id="rId169" location="cite_note-219" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-219" xr:uid="{08A9CC12-96C8-5043-8885-ED73B53756C6}"/>
-    <hyperlink ref="A232" r:id="rId170" location="cite_note-220" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-220" xr:uid="{E35EEA05-8A20-3145-AAFE-F5ADF3F73DBE}"/>
-    <hyperlink ref="A233" r:id="rId171" location="cite_note-221" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-221" xr:uid="{0AC89165-21D4-2F47-B0BF-155F168DE544}"/>
-    <hyperlink ref="A234" r:id="rId172" location="cite_note-222" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-222" xr:uid="{35ED823E-EFD7-624A-8916-2C9C1F531A57}"/>
-    <hyperlink ref="A235" r:id="rId173" location="cite_note-223" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-223" xr:uid="{D586ECE3-D093-C043-9C8B-F500E04A7A36}"/>
-    <hyperlink ref="A236" r:id="rId174" location="cite_note-224" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-224" xr:uid="{BFD5429C-5672-8A47-B23A-CDBF6175B3D8}"/>
-    <hyperlink ref="A237" r:id="rId175" location="cite_note-225" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-225" xr:uid="{29024B6D-819A-2448-8347-C53686D15084}"/>
-    <hyperlink ref="A238" r:id="rId176" location="cite_note-226" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-226" xr:uid="{2CB39052-88B1-6A43-BC35-7B53B3171959}"/>
-    <hyperlink ref="A240" r:id="rId177" location="cite_note-229" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-229" xr:uid="{F14B94BE-15EC-B844-ACC6-CFFD7C86C197}"/>
-    <hyperlink ref="A241" r:id="rId178" location="cite_note-230" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-230" xr:uid="{B6DCA988-E93F-9648-8B6A-C5EA1D6DCEA1}"/>
-    <hyperlink ref="A242" r:id="rId179" location="cite_note-231" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-231" xr:uid="{22F7C25C-FBBB-694D-BC4F-EDD2EF4E9F03}"/>
-    <hyperlink ref="A243" r:id="rId180" location="cite_note-232" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-232" xr:uid="{3A527591-0249-A146-A1D0-18A3443F700F}"/>
-    <hyperlink ref="A244" r:id="rId181" location="cite_note-233" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-233" xr:uid="{80415391-6DF3-AB46-AD95-862DD291D4B9}"/>
-    <hyperlink ref="A245" r:id="rId182" location="cite_note-234" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-234" xr:uid="{8D3255FA-BAE9-A042-A8F1-0D428AD777C3}"/>
-    <hyperlink ref="A246" r:id="rId183" location="cite_note-235" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-235" xr:uid="{31FE6F50-D90D-C945-B54F-817F59E58127}"/>
-    <hyperlink ref="A247" r:id="rId184" location="cite_note-236" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-236" xr:uid="{F950DC65-1DEB-0A46-A8F9-CE398152472B}"/>
-    <hyperlink ref="A250" r:id="rId185" location="cite_note-239" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-239" xr:uid="{2AFEDC3C-F668-CA42-ACF5-0A7892E61BBD}"/>
-    <hyperlink ref="A251" r:id="rId186" location="cite_note-240" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-240" xr:uid="{92350A92-5462-9F49-B18C-10585D97309D}"/>
-    <hyperlink ref="A252" r:id="rId187" location="cite_note-241" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-241" xr:uid="{D299C3FE-FE43-2F41-9FF2-B6ED587E5A70}"/>
-    <hyperlink ref="A253" r:id="rId188" location="cite_note-242" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-242" xr:uid="{7CE65F93-1790-AE45-B907-494FF51D6E76}"/>
-    <hyperlink ref="A254" r:id="rId189" location="cite_note-243" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-243" xr:uid="{2DBCA250-0B6B-5640-9C15-E779904014C5}"/>
-    <hyperlink ref="A255" r:id="rId190" location="cite_note-244" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-244" xr:uid="{6CF9EEC1-7CF4-F540-A9DB-35601EA86FDD}"/>
-    <hyperlink ref="A256" r:id="rId191" location="cite_note-245" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-245" xr:uid="{A0EF8D87-4F8F-E342-8297-A312D497B3D6}"/>
-    <hyperlink ref="A257" r:id="rId192" location="cite_note-246" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-246" xr:uid="{442D6A9E-3080-F44E-BEDC-FB6AEAA7576B}"/>
-    <hyperlink ref="A259" r:id="rId193" location="cite_note-248" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-248" xr:uid="{D1B724D1-7D81-6842-88BA-EE08BD9CFE62}"/>
-    <hyperlink ref="A260" r:id="rId194" location="cite_note-249" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-249" xr:uid="{A4A675B5-4391-9744-A98A-924F6D60E806}"/>
-    <hyperlink ref="A261" r:id="rId195" location="cite_note-250" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-250" xr:uid="{70DF943F-AC98-0D42-8BE2-5E72F6C124CB}"/>
-    <hyperlink ref="A262" r:id="rId196" location="cite_note-251" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-251" xr:uid="{999336C4-D41A-1444-B053-CC14620CCB48}"/>
-    <hyperlink ref="A263" r:id="rId197" location="cite_note-252" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-252" xr:uid="{AFCCFF39-E623-B84C-B26A-2194E31209A3}"/>
-    <hyperlink ref="A267" r:id="rId198" location="cite_note-253" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-253" xr:uid="{15AFD0C3-6027-3E44-B993-F6AB8BF3C71C}"/>
-    <hyperlink ref="A269" r:id="rId199" location="cite_note-255" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-255" xr:uid="{730BB71A-86CB-AE4C-A3FC-0CF602475342}"/>
-    <hyperlink ref="A271" r:id="rId200" location="cite_note-257" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-257" xr:uid="{E2059B17-4216-4A4E-B6ED-1011250BC8AC}"/>
-    <hyperlink ref="A274" r:id="rId201" location="cite_note-260" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-260" xr:uid="{85627A96-AA1D-384B-A379-AB5E2E0C2516}"/>
-    <hyperlink ref="A277" r:id="rId202" location="cite_note-263" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-263" xr:uid="{9CE74D43-E97F-344B-AECA-DF0832F1F0FA}"/>
-    <hyperlink ref="A280" r:id="rId203" location="cite_note-266" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-266" xr:uid="{0E221DDC-8A48-6242-BA93-435BC504BCBC}"/>
-    <hyperlink ref="A284" r:id="rId204" location="cite_note-267" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-267" xr:uid="{7CB63A41-B0AD-B740-91E4-114D525D3036}"/>
-    <hyperlink ref="A285" r:id="rId205" location="cite_note-268" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-268" xr:uid="{7EDC0233-4E40-334B-A686-7C7CC55464B0}"/>
-    <hyperlink ref="A286" r:id="rId206" location="cite_note-269" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-269" xr:uid="{FA9A7579-AD0D-4D4A-8900-56276298EDAB}"/>
-    <hyperlink ref="A287" r:id="rId207" location="cite_note-270" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-270" xr:uid="{218777A7-6933-A345-9D30-57C79F8A95C8}"/>
-    <hyperlink ref="A288" r:id="rId208" location="cite_note-271" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-271" xr:uid="{A5103E9E-A080-5249-B044-83178DC49742}"/>
-    <hyperlink ref="A290" r:id="rId209" location="cite_note-273" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-273" xr:uid="{EA5D5300-38A9-9545-AA47-8296C7D18DDE}"/>
-    <hyperlink ref="A292" r:id="rId210" location="cite_note-275" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-275" xr:uid="{A904B28D-1966-AC4D-9F34-FB90FD625263}"/>
-    <hyperlink ref="A293" r:id="rId211" location="cite_note-276" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-276" xr:uid="{1C24FEAB-3A14-6047-9133-F3F677985471}"/>
-    <hyperlink ref="A294" r:id="rId212" location="cite_note-277" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-277" xr:uid="{600D2DF1-FEA3-E840-BE79-E67ED008A15C}"/>
-    <hyperlink ref="A298" r:id="rId213" location="cite_note-281" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-281" xr:uid="{7F48D346-0DF8-D64A-AFD5-28C0623307E9}"/>
-    <hyperlink ref="A299" r:id="rId214" location="cite_note-282" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-282" xr:uid="{A597E99A-BFBC-E148-93DA-A2C6D4CDD5DA}"/>
-    <hyperlink ref="A300" r:id="rId215" location="cite_note-283" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-283" xr:uid="{4729D6FF-C22B-2F48-A23D-41EAB1903BBB}"/>
-    <hyperlink ref="A301" r:id="rId216" location="cite_note-284" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-284" xr:uid="{C4E94C7A-E2CB-E84F-A609-F93D3F7334FB}"/>
-    <hyperlink ref="A303" r:id="rId217" location="cite_note-286" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-286" xr:uid="{B2D13BF9-1766-9D4E-BF7E-25C1DC072A49}"/>
-    <hyperlink ref="A304" r:id="rId218" location="cite_note-287" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-287" xr:uid="{6EB70723-35B1-C447-BE3E-A9A3EC863E95}"/>
-    <hyperlink ref="A305" r:id="rId219" location="cite_note-288" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-288" xr:uid="{4D6551E2-A395-F849-80F2-31E0288D32B3}"/>
-    <hyperlink ref="A306" r:id="rId220" location="cite_note-289" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-289" xr:uid="{091A1198-02EA-A44D-8821-6CAC1EF79AE2}"/>
-    <hyperlink ref="A308" r:id="rId221" location="cite_note-291" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-291" xr:uid="{301B8B17-E791-F943-9A5A-3D1A150403E8}"/>
-    <hyperlink ref="A310" r:id="rId222" location="cite_note-293" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-293" xr:uid="{4A9C7DB1-1857-1F47-AB48-56485515F0AC}"/>
-    <hyperlink ref="A311" r:id="rId223" location="cite_note-294" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-294" xr:uid="{CBE2D1E4-018D-864F-99EE-26D754F14E4E}"/>
-    <hyperlink ref="A312" r:id="rId224" location="cite_note-295" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-295" xr:uid="{E6A07C42-E785-A54D-898B-3DDA7B340A95}"/>
-    <hyperlink ref="A314" r:id="rId225" location="cite_note-297" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-297" xr:uid="{C07758CF-A8F7-844C-B84B-89B74370ADBB}"/>
-    <hyperlink ref="A315" r:id="rId226" location="cite_note-298" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-298" xr:uid="{BBE2D068-519D-8F40-B9A7-DFDCE61DB1AB}"/>
-    <hyperlink ref="A316" r:id="rId227" location="cite_note-299" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-299" xr:uid="{5D915883-D061-0E42-9255-A7F6528E626D}"/>
-    <hyperlink ref="A317" r:id="rId228" location="cite_note-300" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-300" xr:uid="{E9A764DF-86C8-CC4C-BCC7-4BEAE89A13C5}"/>
-    <hyperlink ref="A318" r:id="rId229" location="cite_note-301" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-301" xr:uid="{A54BD521-70A9-994C-9BF0-94C5D77F05F3}"/>
-    <hyperlink ref="A319" r:id="rId230" location="cite_note-302" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-302" xr:uid="{1BEE383D-37C1-4144-A136-8DB6282B65B6}"/>
-    <hyperlink ref="A320" r:id="rId231" location="cite_note-303" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-303" xr:uid="{80AA91C1-16F3-E448-B925-6B41E0ABE2B4}"/>
-    <hyperlink ref="A321" r:id="rId232" location="cite_note-304" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-304" xr:uid="{640263C5-C6DD-9943-84F3-09BD388B1413}"/>
-    <hyperlink ref="A322" r:id="rId233" location="cite_note-305" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-305" xr:uid="{45A8D197-93F2-9045-9852-B5723A33830B}"/>
-    <hyperlink ref="A323" r:id="rId234" location="cite_note-306" display="https://en.wikipedia.org/wiki/List_of_breweries_in_Ohio - cite_note-306" xr:uid="{3919D6A3-2EF2-684C-8EA6-159A78E0424C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>